--- a/medicine/Psychotrope/Atlas_(bière)/Atlas_(bière).xlsx
+++ b/medicine/Psychotrope/Atlas_(bière)/Atlas_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Atlas_(bi%C3%A8re)</t>
+          <t>Atlas_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Atlas est une « bière de tradition néerlandaise »[1]. Elle titre 7,2 % d'alcool, vendue en canette de 50 cl et spécialement faite de maïs, qui explique ses bières avec des taux d'alcool élevé.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Atlas est une « bière de tradition néerlandaise ». Elle titre 7,2 % d'alcool, vendue en canette de 50 cl et spécialement faite de maïs, qui explique ses bières avec des taux d'alcool élevé.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Atlas_(bi%C3%A8re)</t>
+          <t>Atlas_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brassée à l'origine par la Zuid-Hollandsche Bierbrouwerij (nl) (ZHB)[2] de La Haye en 1950, elle est désormais produite par Oranjeboom depuis les années 1970[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brassée à l'origine par la Zuid-Hollandsche Bierbrouwerij (nl) (ZHB) de La Haye en 1950, elle est désormais produite par Oranjeboom depuis les années 1970.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Atlas_(bi%C3%A8re)</t>
+          <t>Atlas_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette bière porte le nom de la divinité grecque Atlas d'origine Berbère et la représente sur les canettes ; cet emblème vise à donner le sentiment d'une grande force.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Atlas_(bi%C3%A8re)</t>
+          <t>Atlas_(bière)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Dégustation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est à servir de préférence très fraîche, un goût un peu plus fort que la bière normale et peut-être un excellent mélange avec d'autres type d'alcool [1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est à servir de préférence très fraîche, un goût un peu plus fort que la bière normale et peut-être un excellent mélange avec d'autres type d'alcool .
 </t>
         </is>
       </c>
